--- a/dataset/day_3.xlsx
+++ b/dataset/day_3.xlsx
@@ -763,7 +763,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>G((Corridor.Speaker.on) -&gt; (F[0, 1*60] !(Corridor.Speaker.on)))</t>
+          <t>#10</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -16091,7 +16091,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -19063,7 +19063,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -20115,7 +20115,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.humidity_up -&gt; (F[0, 60*60] !MeetingRoomTwo.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -23207,7 +23207,7 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -34819,7 +34819,7 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
@@ -36351,7 +36351,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -40563,7 +40563,7 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
@@ -41295,7 +41295,7 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
@@ -42707,7 +42707,7 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
@@ -43799,7 +43799,7 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
@@ -44931,7 +44931,7 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.humidity_up -&gt; (F[0, 60*60] !MeetingRoomTwo.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
@@ -49023,7 +49023,7 @@
       </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1210" t="inlineStr">
@@ -49995,7 +49995,7 @@
       </c>
       <c r="H1234" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1234" t="inlineStr">
@@ -53407,7 +53407,7 @@
       </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I1319" t="inlineStr">
@@ -68619,7 +68619,7 @@
       </c>
       <c r="H1699" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1699" t="inlineStr">
